--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/36_Hakkari_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/36_Hakkari_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D93FA25-B89C-455C-A6EF-248B9C2E900E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9155E73E-92D8-4DD4-BFCA-96C25A434D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{CCF5233A-910E-4182-B060-5CCB0009A475}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{D1953E05-EE84-48A7-8180-9B71A219A869}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E0B50048-A8FC-4BC1-96D4-7B994C4D97DB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B47946AF-3BCA-404E-B48D-44AFCDCF5778}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C6CE0749-F524-4E51-AF2A-1CC93D2BA131}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C45CC640-D981-4BDE-9906-C0DA1D3D9E6A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{425FE11B-3B00-44FD-9CEB-A1B02E0E56AD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{5BAF9265-489B-4372-A259-8C773099C6F2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{58559954-944C-489C-A318-2C7FEE000DB5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{468C37AF-0A3D-4E3F-AE12-61AB7C233E57}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9159FC9D-466E-43A6-B896-861986B37695}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{FBCC589F-3BFD-4C79-8A36-282A92B878F4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{05389B2B-750C-46AB-BD2E-A11A9F00E9F5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C92D9D96-DC81-498A-B362-9A829CCF1D6D}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CBA7C660-4961-4DFF-A6A8-F973C31CCE3C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BFE9829D-C390-4F43-92AC-14B07E5F3D5A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391F3479-78AD-4347-AF1A-73F492C89084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EDA3F7-728A-4B97-87E2-CF829CAE3FD5}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2546,18 +2546,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DA905F4-B80B-475A-87CE-6C0BF27A15EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27172C3A-90F3-4081-8FDF-5C7122470B84}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{445217D9-9D1F-4E32-B929-F04C5BEA4147}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7791262C-C3E9-450E-8429-78D0C9A9477E}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5F97CFB3-57C2-4EAF-8757-CA470B5F0319}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8511ACD0-6F28-4CE4-B269-296240085797}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94691C95-766D-43B0-8479-922961A586ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7625F6E5-E305-4197-BFD1-6689A21A731D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD8F22CC-298A-4521-A7F5-6016122E60C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7FAAC83-5D46-4893-8860-E0F15142B88A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33EAC475-401F-4459-B62A-B51E06F2BD00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68EF80D8-C311-49D2-90F9-38FE14FEFF1C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24ABC929-1AC9-49D4-B701-2E5ADBD60B91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C1424B7-714C-4110-8C05-698E497644D2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3BEC7562-5A0D-4D4E-B5A6-B3E0BE272207}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A56FA43A-18AB-4441-91A3-9F6D77B78E19}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2F5D3750-6C07-46A5-A190-FC20842F32C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D01146B-6DFF-41A6-9BCB-D2A2689C6BF5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{78B32471-CFC7-4655-A036-32BF76528B2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BAEBB2E0-8179-447B-8881-C133EC53BA6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0335DDAF-9DF3-4E7D-A7AD-110AA4789403}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FCD8C7D-2E80-4243-80CF-E1606F98F9F2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F16670BC-424F-4247-8008-D052EE3BAA62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D40767F2-1DAE-48C4-B110-7E93457F7C39}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC59DE9-F606-45EB-8B2E-4570CB7F8529}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EF7A9D-2184-420E-8127-31AABA8432AF}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3777,18 +3777,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7040D71E-C157-4FE2-B25C-6F4C3957C343}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81CAF204-BFFB-4DEC-91F5-0F5C5E8CA2DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2DACF139-69B2-4D6B-97D7-C229936E7B5C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{403E3654-5BF9-4207-B744-463DF3F346CE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A870F243-5871-4674-84CE-E5B3301B3DE3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{190D0DB1-CBFA-4C38-A6FD-335110AA43E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{40341146-3EB6-43C0-BD14-3B1F6C9C48BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB833474-DCE0-44BF-B064-33FC9A5BBF81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80090BB1-622A-49A4-8D47-940709E108E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3E66D36-B087-4B97-BDBE-86C731A6C047}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89A02CDD-386D-4421-B7D9-CC49B88D2053}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8EF49066-C13A-4FCB-A637-0384A5224B04}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{472994B7-13A5-43B5-A7FD-024DEB3C84F3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AD2D7DE-EFED-45EA-BEC0-0CE767978778}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AA33EEE4-B9C3-4AF0-8E3B-181AC38CD2E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F833C0EE-8EE4-4E20-98CD-EF9654AA8E52}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FE119118-30B1-434B-A16C-EE8E140D4B9D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8993E07-8115-4A70-B6ED-8FBDF0383868}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E26018A-C36D-40A0-8558-F186A7F91668}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{37759759-3305-46FC-B80A-BC44098FF02F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A80E61CF-46B4-4345-8A0F-FF664823E066}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34079F9C-EDC9-4F01-BF7D-BACF1207C466}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28623D38-038B-4779-8575-DC14445D3ADA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2CAE63AD-B358-40A5-B377-530584180304}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BB8A2-8D34-4183-B963-78A67BDF839C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665F10C5-3667-48C9-AB74-361C70D839F5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5008,18 +5008,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40E8CF54-FE2A-4BD9-BCAC-780B327A5223}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA221F76-1EF9-405D-9C9D-B3A8BD6B32C0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A84BA943-F720-468F-B246-A4361DBE14D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58521355-5206-460A-A476-711B2920A0B9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7E86CFC2-2B2B-4AF1-AA69-171D34288038}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{54B3A027-9B6E-4175-AAEE-3640DB9E2A87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2B5297CA-FD09-453F-8B26-1C67CAB90737}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0392FD51-98AB-49BA-B132-9DCDED82B21D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{290A1CEF-5144-4EDD-B5CE-DB344B27CFAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A83FA095-AE4A-450F-91A4-BFDBB952661B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CB02EB6-0B5A-4FF4-BB5B-43A4D72F2110}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8B0B2C4-DDE9-43F2-9630-6A814E3AAA29}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B13284D1-DD54-41C0-A57C-91093BC846FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD4D4E74-F06B-40AD-8D6B-F6F453DD58FC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88DFF096-6992-475F-A631-643246CB43B1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6D4FBE0-CEC0-4C7C-A24B-838BD9560E3B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C1AEB136-DF14-4BB1-91E1-7C3E68944620}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48A39E2A-B7BC-492B-B152-84D331491965}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1A8F7D0-6D54-4B98-8EBA-8CF73994EB9F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E6849C5-AB37-487E-B8FA-3416FE0BC6D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD7FC914-77E8-4911-9163-75F271F02F63}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54265745-824E-4582-932C-D790076075E9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B1B156C-672A-436B-B65C-BC7093F85A73}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B11299A-36F4-4BD0-85E3-5D2CA842631C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5032,7 +5032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF3B8BF-A9CA-45BC-98C7-86B52A90B01E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CF7635-F84B-4EE4-9FF4-DDADFE479A58}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6236,18 +6236,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A927B896-40E1-4D5D-88E5-3E12B2668663}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB86E774-64FF-4C3A-B0FD-4330F118BFD3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4AA368C-18C4-4353-A0CB-A33888FC5F62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{39C061C7-C327-4548-9978-545C28642815}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{81B91CD9-3092-45BC-87CC-AD8CDBFB027E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7382A3E9-5951-4277-8BFB-9C30CEE2ED43}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17AFF2F4-3C54-4B0B-8254-A9DF857A2440}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F59C7BE-85B2-43ED-9B2C-EC10863AF1DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A478A34-4963-493B-9C90-7DE09CB4C036}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F337EE2C-08D0-42CE-91E3-41E80D7C9678}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{996477CA-EC0F-48D8-91E3-5D97E97784D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{549C1A18-AD1E-4F52-A9A2-28C950534BEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE3AE201-0A6A-40D9-82B6-5880DF236608}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DD05B45-AC95-4F0B-B8CA-CD73035FA373}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE45FFE2-4FE1-4288-ABE2-5BED1266639F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2127D831-BEA8-48F0-882F-C3BF729A645A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7ECDA7E0-B0B8-4313-8126-F429F3513B93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA5F09F7-BBDF-4B0B-A41A-F9FB39095FBF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E06B6AB8-7368-4D8E-9232-C09DA5046CA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2395187-2F3C-4451-B8B8-73B535C3EE18}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57C784FE-7A4B-46E7-A9D3-52085F2353C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F6C2537D-D300-46BF-A4A7-65180F68FBAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E98AA8B-FE6A-4383-A2B7-23889AE2F044}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{796E4DD2-CF9F-4576-A9C4-90CC39E19813}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6260,7 +6260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DEDC62-94FF-4D4B-AF8E-EA67B9764C8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E901DC3F-11CC-4DDB-B5F9-0A300E99FF9C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7475,18 +7475,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40D57F31-C549-445C-A3F9-464044FBFE99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{662D1C91-F002-4BE0-93D8-870E6AC41114}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DE6E709-0647-4904-81A1-7F20346DC813}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B11A734-64B2-4B87-ADE5-C2F7AF990D5D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FCA3BA41-2F6B-4934-AB04-6741FE30F875}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F96E21E8-F3EB-417F-BD9E-134C37BAE822}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96A24B18-DA30-4444-B494-AB0102A25394}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36F64025-7FC4-4C17-82E8-EE716AFC61C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68E54E46-333A-4370-8D45-EF7B71671E39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C58C29C-BC0E-4598-9CE3-E93825DC947D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6ED175DC-8C4E-4890-AEA9-F9D385CDFCC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{469BCF70-4F36-42DC-8AF1-5FCC82F0B715}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BAE42939-9160-493F-A3B5-63616311408D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB94637E-43FB-416A-8717-5094142403C8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{624FE453-CD59-4A79-85A8-C0DE5F9E9133}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EA969A5-B3C0-46C1-9975-CA96E76373A3}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C6FB830E-F3BA-43DB-9319-96CE3A647731}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5FF4C093-8495-4051-9CDA-233BB2A1EC87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3869F1C-5CE3-4C98-92C0-5DEF0AE1175A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9889170D-D734-4675-9B99-BF95D098D407}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3860FE4A-BBFF-441E-9B52-72EC94E9B276}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34C31081-216D-4D31-B7F6-EC44675F2F1F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4293BA04-4C69-4BF7-9E7A-679B5A6754C5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51D22E0C-55F7-4644-BD91-966D387F4097}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7499,7 +7499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23F4A52-85C1-4B0F-B270-A20112DABAF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EE4671-7286-4C2C-94BF-27E54AC30045}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8714,18 +8714,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E628D89-E9B0-41D5-A295-AE2213C51978}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{237BE4D4-42CF-4BEE-BC9E-32DAEBB1A075}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4B32BC8-6ECB-4C66-8BFF-C9F13624FBC0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F1E517A4-FA9E-414A-8B4A-6DD962C86AD3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7E0F5CEC-2BB0-4CF1-9E2D-6A5AD12419E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{708D1FA6-7186-4A49-AD28-9B8501E735FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA4359BA-0027-4D8E-8249-E8ECC1CD9CB2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABAA7B03-F6F1-489E-A71C-0EDC586EF5C3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7872BCB6-2F33-4EE7-ADEC-CC4C0DCA905D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{796DB105-6BCF-420F-95A7-2821FD9048B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{237AA2F2-E751-4A6F-8680-21AC1AE45C4A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B56E4F18-F3B3-4490-87E0-3E2A7C699DAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8BF1ED9C-BCE3-4D08-A4B6-C2CB232F13DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C84588F8-BC25-4851-B7D4-2573BB5F3D3E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B137A2D-F648-4D11-81E5-21A222AF793D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FEAA5B05-6B96-44DC-8C1F-27A72BA1730C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DB160C0D-D951-42E7-946A-E3754AA0CF39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7354395-395D-48A6-9D91-4B5F67A1D491}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{549BB183-5EFE-42F3-993F-DCEC4AAD7DCC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{404783B8-D49F-4BF4-841E-98152C31DF15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AF1A203-DCA2-48CA-831A-094E1C6A2830}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AB03F8C-E3D7-4562-899B-00DAD855D91C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{871A222D-2B8E-4335-A3A8-94F4CF38D0F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FD96BCD-351A-47E5-BA6F-E1E366ADBAFA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8738,7 +8738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9C1DED-C921-4963-BC62-2E153801EA52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B913591-7738-4B42-A23D-9C5219E40BB6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9953,18 +9953,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30E83359-3C6C-4DA2-9213-A67DD4E6C8FC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0B55D478-993F-4EE5-B510-79F82AE2F9A6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D1848E7C-DFCC-44EB-9C9A-C8BA2EE0B504}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B2AF5CF-5E66-4B72-9A5D-C74CB0E2C040}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{FF0F5DDC-3CDD-4BE5-9649-39B6D46DE608}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85351BD0-6B51-4AAC-9921-68539425F15A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C40DD8AB-B745-4157-9840-B27FAB77DD3D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69A349B4-BC1A-4BEC-85AA-3587B10F9924}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8EE5154-5974-4116-AE1E-90A4D0D155F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48775563-2BCF-4132-B396-A12FD0457E37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7C9866B-697D-4463-A2F4-A1C7CDE30CEE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0836363-A201-459B-82D7-10E44799A2E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB1621DF-0FD2-4596-B848-AA865FFAD190}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09F9CEB2-999B-4C0D-A61F-1597A466FD84}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A4EBF5B-4D83-4A08-9235-5B37E2EF7297}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69DA5551-D535-4453-8181-3488B87F41BF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CD037550-BD61-4DE6-9CA0-F86131A68999}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57EC0F1B-B7EC-4607-99E1-4BB169EB1BB4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B07F0AB4-715E-4427-8A3B-E30A73BAFCB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BF2F97B3-7B5A-40B1-AE47-977E27584830}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81B2C332-CD22-4AE2-9710-9D535F28A032}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31663C23-A83D-48C8-84C1-0BDD262C0335}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDD6AC49-5CB8-468F-91FC-9D05E83CA72F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88458677-CD77-4714-96D8-F3A874A00970}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9977,7 +9977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F5CA13-2349-4E9B-9FB5-F2446C07B132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81A2B01-5FEB-47D3-BC75-00CA69FB47CA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11192,18 +11192,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02130B18-3515-4609-90B8-FE053DFE6069}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86E3A481-BEA7-45EE-99D2-9953B394726E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAE47D88-C277-4734-B668-0D09B0C4BAB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D098174-EF75-4DDB-9C00-F5B2A925BEAA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{67D31AC7-6926-4C1F-8DD0-4CB4010F199B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A87B103-7805-4557-97D8-A401CBBC6F6C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{887BEB1F-66A6-4BE2-8330-B61B59276012}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DE6117D-9FBF-490C-8BCF-172CFFC0A91A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84295533-C4D4-41D4-96EF-918E1BBC3471}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91173B6B-4EFC-4E6B-B7FB-38254555674A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC7CDC92-F4FE-4ECA-A295-319CD0286C55}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2CE0A5F-51DD-4A0B-85D7-436432E7236D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8198A5E1-4679-4751-976E-552E99AC0A1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92DCF233-37C3-48CB-BCD4-C042CB90BBD8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{726FB14F-EC49-4A97-9260-F5B4C8644488}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52E044D3-9F44-4D26-BC0E-3D7221BFE385}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2A2879F1-C951-422B-9FFF-EBD9EBA5B51F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{69B7260F-9DBC-42ED-981D-BDA76625B88A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE2203D7-D74D-47D7-A966-AF951F91B6F8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F46B578-5F01-4430-A7AF-874625D7BCA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{604E0657-6F8D-4A86-A61F-B78B9DBD6621}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D910BA7B-7FFB-412B-925A-34A6A390EE5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B733CCEF-92B2-4ACB-8237-2157CFCCC219}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{542FCC9B-1144-4BF0-A07D-C56B7B324626}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11216,7 +11216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C8BD47-0AB5-45BA-8F58-512C74F612E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C222E2-6422-43C1-8F5B-EDBD230BF93B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12431,18 +12431,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDAA39DE-451B-44C7-84D8-903F6833658E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1D1BC05-0C5D-4CEF-9AB6-90867597677C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09F91531-A351-4D4F-B6A6-90B2E6B05A40}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8CE058DB-42A8-4CA7-B048-CC31F9D16A96}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DB510771-2E11-4CF7-94C8-13028789572C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD267697-59BA-4BD2-8515-D25527CFC0B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{026B8148-660C-4F31-ABFD-DFFD2E94F3F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{461248A7-37BE-4149-BBB6-888A7877DB29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7503CD4A-CB05-4876-9AAA-5CEE7675F93E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01AB27E9-2709-435A-AE4B-83525DD08956}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3F42BE6-78B5-44AE-88C5-B6921657BD89}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{878ADE04-3377-4D75-B4AF-5A5607464F6C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E037D930-67A0-4BFA-BF60-BF934F8E2F4D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{607E8A57-DA8D-4EE5-81E7-6633DDF2DFE4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26FF373D-91C3-49F3-91FB-41A52FD4932E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EA42C10-6776-4166-841A-D9E6F2426333}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9AF0A412-4932-4DA6-B9F7-9DC12895BFA4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87318363-9D17-4B19-B73D-FC58DD58D503}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9274F3D7-7910-4BEF-A440-C667C6260750}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B27B7F31-EB29-46E4-A0A4-0F38589CC634}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C6F4230-F499-4C76-A728-89A49F69E6FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0AD6985A-3690-45EA-8742-BF746C1B3059}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC199B1E-0456-4D7B-B1BD-CB71DA885AB1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1123486A-F3B0-4D3E-9BA0-4584B49EF2AB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12455,7 +12455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4024D5-A90C-433D-875A-484A2689BCB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C619267-3618-44C9-833E-340BDE69C575}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13670,18 +13670,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD0E67A9-4EB5-45FA-9535-A0F1067612B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C148BE0-BBAA-4C26-972B-1AE32FE50AA1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{229B3F3F-DBAB-49E6-A44B-65BDBD2023DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{478A4D8B-3A2E-4428-A9BB-E97DF780F8CC}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{91E620B9-9589-4BC2-8EA2-7282B6CB7B21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83A3E7B7-2DA8-4D3D-87E4-70762C2FFE3E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCEDAA3D-9043-4016-AF57-290888067B11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CCE652D-CCF3-4F0F-91C4-006D8E7D1A73}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28F0F21A-24A0-44DD-8098-4829F4E65649}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F27E99F-E9FA-49CD-B78B-514C2B2F98F2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F65E9A7B-18B4-4CA2-928E-14A0080DA03E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9E09140-DE9B-4580-A2E4-097145639D28}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60A23F60-42C1-4BDF-AB1C-D2113F508FFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BABC2549-EF0E-4DEE-967F-5632B13D9A98}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB53B981-DB05-457B-A6BF-992229381EC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B3B2684-D9A9-4663-B5C4-1DD2C28865AB}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5CDC21FF-FA35-4E1C-A970-C0DE3F5D5B7D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66111B12-EA48-4A31-B3C0-BDD30A3D9781}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A1EE90F-0C18-4A41-9750-F3D344112F07}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E63920C7-D9C9-4531-B51B-829060619E05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36C7999F-FE73-4E0B-ABD0-28C808440529}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A88942F-A5A1-43FB-A73E-3FCB95055F63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8490B2B-C504-4751-9595-566FB9A914C7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{003640C1-3CF1-4F50-A7CF-C62C272575CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13694,7 +13694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4FEC32-23B5-4A12-A606-2690A1DBAFA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DEA5DB-ED6B-4109-9D34-A84B3DFE2CC6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14909,18 +14909,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93B3AEC0-1285-4B3F-9DFF-AD26FC0661AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A53D1AC-029A-47B4-A4B8-F991980CEB2A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5322D969-72B1-44DC-8CC1-20FA91EE3680}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DBFFCCFB-59C5-429E-B1FC-DC1080B2BC57}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D4223C84-6EF9-4ABE-BA02-32CC1E6FD4BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{321143EC-9D27-4190-8595-619A0617FC1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{565533F7-A935-450B-BD1A-2DD95E9413F7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5FAA7A8B-0DE8-4E33-8D03-45EE7B8E7A3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFE547C2-439F-4624-9A5C-DDE7A57927FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F2E0295-E08F-4371-8974-72DAB09600B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59D159EF-C0E5-4171-8770-5A7857BE2B35}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00D249EA-C81B-4787-9FC4-D02013E6D64B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9348DB8-77B5-40B7-AEC5-DD4351B3EFFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C47D7CC7-05EC-4364-9991-925E3D11DAF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5FE42848-607B-42B9-9C46-41983E9B26E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76C8842A-4521-4DBB-B18F-6D86FF0478CC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1E7B006F-D8DA-4917-9BE4-9752F824BC6A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E554949B-5AAC-4932-BAE3-C1CE421FD873}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85C746D0-FA49-47DF-8697-0B67B0BC2184}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D8D1DD0-19B9-40DC-B401-3BA94F229998}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5348DC5-DE60-4FCA-AB64-0F68DFF15E72}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1BB5104-07B0-4C99-A974-2A03BD3F37BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FEDAB16-C44A-4960-848D-42D6B479C363}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{914AE43B-89FB-45E0-8E68-96A6E69031B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14933,7 +14933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE1EBCC-6032-4A54-A481-FC3C739AD3BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F922B2D-4850-4DFF-97E8-114893C81069}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16148,18 +16148,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA260D16-6989-4EAE-AA9D-E5183B67F3E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4895BD51-6F11-46F2-9871-5DECA538BDC4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C5E06824-78A8-4EFE-8D0A-FA5ADEF43EB6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B43E4776-02D6-4F34-99EC-BE5AF8A3700D}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1EAF3972-7C48-4FA1-996F-C96DDE276383}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79A0D6A3-98FF-48BC-9EF2-7F06941C7AAC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{985E3CE6-9192-486A-8DF1-A3A6059758CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65718A13-6823-4C69-AB63-83107ADCF910}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE3B1E54-32D1-4261-8013-859DFB4A02F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D137F00-5C1A-4900-A7AA-CE13EB0E2E05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E89D593F-8553-403E-891B-8FDEDA67A9B0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E44D96DF-0FB4-408C-8252-0B065CF4F404}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F596094F-170F-4B6C-BE2B-4AE6B43E3791}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9146B14D-6B02-4FC5-839F-4BF0F31D99CB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7FB315E-15A3-43B8-B508-F28C338603F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE78F149-2BAF-4C52-A10E-ADB5BDDED955}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{41E13708-FDEA-4F0B-B314-C82E9F3DE5F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2254F0C5-4FFE-48F4-841C-632D693446D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3E1B751-72DE-4490-8109-CF93B484E537}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96E8F499-B696-4C23-8D4D-3E8A75EB02AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD0814BB-D6DC-4C34-9C47-87F477A5C3FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC2365EA-8E60-4B84-B89B-F818252651CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40F53783-5235-4C03-AF7A-9FD41D295BE7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0A5B474-043E-4606-8209-C15183BA1D81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
